--- a/data_voor_swing/aggregatietabellen/winkelgebied_dummy_gemeente.xlsx
+++ b/data_voor_swing/aggregatietabellen/winkelgebied_dummy_gemeente.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\data_voor_swing\aggregatietabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gebiedsniveaus_NIEUW\data_voor_swing\aggregatietabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A7F443-44C7-49FC-8125-BBD03BC1AAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6995FC99-12EC-4027-BF2F-B1FE47C33BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15840" xr2:uid="{E76BCD5C-AA4A-4926-A107-4FD367A15164}"/>
+    <workbookView xWindow="28680" yWindow="-4065" windowWidth="29040" windowHeight="15720" xr2:uid="{E76BCD5C-AA4A-4926-A107-4FD367A15164}"/>
   </bookViews>
   <sheets>
     <sheet name="winkelgebied" sheetId="2" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -396,7 +397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5914253-C4D5-4DDF-AB0B-ADD31AB66877}">
   <dimension ref="A1:B1264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -709,7 +712,7 @@
         <v>3420</v>
       </c>
       <c r="B39">
-        <v>44045</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -797,7 +800,7 @@
         <v>3640</v>
       </c>
       <c r="B50">
-        <v>46014</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -805,7 +808,7 @@
         <v>3680</v>
       </c>
       <c r="B51">
-        <v>46014</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -813,7 +816,7 @@
         <v>3700</v>
       </c>
       <c r="B52">
-        <v>46014</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -829,7 +832,7 @@
         <v>3720</v>
       </c>
       <c r="B54">
-        <v>46014</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -837,7 +840,7 @@
         <v>3740</v>
       </c>
       <c r="B55">
-        <v>46014</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -845,7 +848,7 @@
         <v>3741</v>
       </c>
       <c r="B56">
-        <v>46014</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -893,7 +896,7 @@
         <v>3960</v>
       </c>
       <c r="B62">
-        <v>46014</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1805,7 +1808,7 @@
         <v>7160</v>
       </c>
       <c r="B176">
-        <v>11007</v>
+        <v>11002</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -2229,7 +2232,7 @@
         <v>8140</v>
       </c>
       <c r="B229">
-        <v>11056</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -2245,7 +2248,7 @@
         <v>8180</v>
       </c>
       <c r="B231">
-        <v>11056</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -2253,7 +2256,7 @@
         <v>8200</v>
       </c>
       <c r="B232">
-        <v>11056</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -2301,7 +2304,7 @@
         <v>8300</v>
       </c>
       <c r="B238">
-        <v>37018</v>
+        <v>37021</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -2309,7 +2312,7 @@
         <v>8320</v>
       </c>
       <c r="B239">
-        <v>37018</v>
+        <v>37021</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -2365,7 +2368,7 @@
         <v>8440</v>
       </c>
       <c r="B246">
-        <v>37012</v>
+        <v>37021</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -2421,7 +2424,7 @@
         <v>8781</v>
       </c>
       <c r="B253">
-        <v>44034</v>
+        <v>44087</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -2437,7 +2440,7 @@
         <v>8821</v>
       </c>
       <c r="B255">
-        <v>44034</v>
+        <v>44087</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -2453,7 +2456,7 @@
         <v>8860</v>
       </c>
       <c r="B257">
-        <v>44073</v>
+        <v>44087</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -2461,7 +2464,7 @@
         <v>8880</v>
       </c>
       <c r="B258">
-        <v>44048</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -2469,7 +2472,7 @@
         <v>8900</v>
       </c>
       <c r="B259">
-        <v>44034</v>
+        <v>44087</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -2477,7 +2480,7 @@
         <v>8920</v>
       </c>
       <c r="B260">
-        <v>44034</v>
+        <v>44087</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -2525,7 +2528,7 @@
         <v>9060</v>
       </c>
       <c r="B266">
-        <v>44012</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -2685,7 +2688,7 @@
         <v>9420</v>
       </c>
       <c r="B286">
-        <v>46013</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -2925,7 +2928,7 @@
         <v>10440</v>
       </c>
       <c r="B316">
-        <v>46013</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -3285,7 +3288,7 @@
         <v>13741</v>
       </c>
       <c r="B361">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -3405,7 +3408,7 @@
         <v>14023</v>
       </c>
       <c r="B376">
-        <v>11007</v>
+        <v>11002</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -3645,7 +3648,7 @@
         <v>14980</v>
       </c>
       <c r="B406">
-        <v>37015</v>
+        <v>37022</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -3789,7 +3792,7 @@
         <v>15600</v>
       </c>
       <c r="B424">
-        <v>46013</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -3973,7 +3976,7 @@
         <v>17240</v>
       </c>
       <c r="B447">
-        <v>44040</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
@@ -4005,7 +4008,7 @@
         <v>17620</v>
       </c>
       <c r="B451">
-        <v>44043</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
@@ -4117,7 +4120,7 @@
         <v>18020</v>
       </c>
       <c r="B465">
-        <v>46003</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -4125,7 +4128,7 @@
         <v>18021</v>
       </c>
       <c r="B466">
-        <v>46003</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -5005,7 +5008,7 @@
         <v>20920</v>
       </c>
       <c r="B576">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
@@ -5277,7 +5280,7 @@
         <v>21480</v>
       </c>
       <c r="B610">
-        <v>46003</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
@@ -5605,7 +5608,7 @@
         <v>22980</v>
       </c>
       <c r="B651">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
@@ -5613,7 +5616,7 @@
         <v>22981</v>
       </c>
       <c r="B652">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.3">
@@ -5621,7 +5624,7 @@
         <v>22982</v>
       </c>
       <c r="B653">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.3">
@@ -5757,7 +5760,7 @@
         <v>23301</v>
       </c>
       <c r="B670">
-        <v>37007</v>
+        <v>37022</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
@@ -5837,7 +5840,7 @@
         <v>23723</v>
       </c>
       <c r="B680">
-        <v>37015</v>
+        <v>37022</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.3">
@@ -6101,7 +6104,7 @@
         <v>24285</v>
       </c>
       <c r="B713">
-        <v>73040</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.3">
@@ -6357,7 +6360,7 @@
         <v>24490</v>
       </c>
       <c r="B745">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.3">
@@ -6365,7 +6368,7 @@
         <v>24491</v>
       </c>
       <c r="B746">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
@@ -6389,7 +6392,7 @@
         <v>24498</v>
       </c>
       <c r="B749">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.3">
@@ -6469,7 +6472,7 @@
         <v>30414</v>
       </c>
       <c r="B759">
-        <v>46003</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
@@ -6477,7 +6480,7 @@
         <v>30433</v>
       </c>
       <c r="B760">
-        <v>46003</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.3">
@@ -6637,7 +6640,7 @@
         <v>94092</v>
       </c>
       <c r="B780">
-        <v>23023</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.3">
@@ -6645,7 +6648,7 @@
         <v>94194</v>
       </c>
       <c r="B781">
-        <v>23023</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
@@ -6653,7 +6656,7 @@
         <v>95020</v>
       </c>
       <c r="B782">
-        <v>23024</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
@@ -6701,7 +6704,7 @@
         <v>98109</v>
       </c>
       <c r="B788">
-        <v>23032</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
@@ -7701,7 +7704,7 @@
         <v>200056</v>
       </c>
       <c r="B913">
-        <v>46003</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.3">
@@ -7709,7 +7712,7 @@
         <v>200059</v>
       </c>
       <c r="B914">
-        <v>46003</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.3">
@@ -7789,7 +7792,7 @@
         <v>200096</v>
       </c>
       <c r="B924">
-        <v>37015</v>
+        <v>37022</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.3">
@@ -8045,7 +8048,7 @@
         <v>200182</v>
       </c>
       <c r="B956">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.3">
@@ -8053,7 +8056,7 @@
         <v>200183</v>
       </c>
       <c r="B957">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.3">
@@ -8061,7 +8064,7 @@
         <v>200184</v>
       </c>
       <c r="B958">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.3">
@@ -8069,7 +8072,7 @@
         <v>200185</v>
       </c>
       <c r="B959">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.3">
@@ -8413,7 +8416,7 @@
         <v>200341</v>
       </c>
       <c r="B1002">
-        <v>37018</v>
+        <v>37021</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
@@ -8445,7 +8448,7 @@
         <v>200350</v>
       </c>
       <c r="B1006">
-        <v>44043</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
@@ -8453,7 +8456,7 @@
         <v>200351</v>
       </c>
       <c r="B1007">
-        <v>44043</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
@@ -8485,7 +8488,7 @@
         <v>200363</v>
       </c>
       <c r="B1011">
-        <v>46013</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
@@ -8509,7 +8512,7 @@
         <v>200370</v>
       </c>
       <c r="B1014">
-        <v>44040</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
@@ -8661,7 +8664,7 @@
         <v>470103</v>
       </c>
       <c r="B1033">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.3">
@@ -8669,7 +8672,7 @@
         <v>470230</v>
       </c>
       <c r="B1034">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.3">
@@ -8677,7 +8680,7 @@
         <v>470238</v>
       </c>
       <c r="B1035">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.3">
@@ -8685,7 +8688,7 @@
         <v>470265</v>
       </c>
       <c r="B1036">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.3">
@@ -8693,7 +8696,7 @@
         <v>470277</v>
       </c>
       <c r="B1037">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.3">
@@ -8789,7 +8792,7 @@
         <v>477192</v>
       </c>
       <c r="B1049">
-        <v>71057</v>
+        <v>71071</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.3">
@@ -8797,7 +8800,7 @@
         <v>477218</v>
       </c>
       <c r="B1050">
-        <v>71057</v>
+        <v>71071</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.3">
@@ -8829,7 +8832,7 @@
         <v>480128</v>
       </c>
       <c r="B1054">
-        <v>71069</v>
+        <v>71071</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.3">
@@ -8837,7 +8840,7 @@
         <v>480157</v>
       </c>
       <c r="B1055">
-        <v>71069</v>
+        <v>71071</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.3">
@@ -9077,7 +9080,7 @@
         <v>496072</v>
       </c>
       <c r="B1085">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.3">
@@ -9085,7 +9088,7 @@
         <v>497075</v>
       </c>
       <c r="B1086">
-        <v>73009</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.3">
@@ -9093,7 +9096,7 @@
         <v>500113</v>
       </c>
       <c r="B1087">
-        <v>73032</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.3">
@@ -9101,7 +9104,7 @@
         <v>500279</v>
       </c>
       <c r="B1088">
-        <v>73032</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.3">
@@ -9109,7 +9112,7 @@
         <v>501126</v>
       </c>
       <c r="B1089">
-        <v>73040</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.3">
@@ -9149,7 +9152,7 @@
         <v>504195</v>
       </c>
       <c r="B1094">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.3">
@@ -9157,7 +9160,7 @@
         <v>504246</v>
       </c>
       <c r="B1095">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.3">
@@ -9301,7 +9304,7 @@
         <v>507224</v>
       </c>
       <c r="B1113">
-        <v>37015</v>
+        <v>37022</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.3">
@@ -9309,7 +9312,7 @@
         <v>507225</v>
       </c>
       <c r="B1114">
-        <v>37015</v>
+        <v>37022</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.3">
@@ -10149,7 +10152,7 @@
         <v>508081</v>
       </c>
       <c r="B1219">
-        <v>46014</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.3">
@@ -10245,7 +10248,7 @@
         <v>508105</v>
       </c>
       <c r="B1231">
-        <v>44048</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.3">
@@ -10261,7 +10264,7 @@
         <v>508109</v>
       </c>
       <c r="B1233">
-        <v>44043</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.3">
@@ -10333,7 +10336,7 @@
         <v>508838</v>
       </c>
       <c r="B1242">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.3">
@@ -10341,7 +10344,7 @@
         <v>508850</v>
       </c>
       <c r="B1243">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.3">
@@ -10518,4 +10521,18 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55D0BD2-035A-488A-936A-F56C73B21523}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>